--- a/src/compiler/data/XAIP.xlsx
+++ b/src/compiler/data/XAIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarathsreedharan/mycode/survey-visualizer/src/compiler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571569A2-4179-4047-B70C-4C75B674301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761403D8-AC0D-4342-A731-F3C4E626E2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Why Can’t You Do That HAL? Explaining Unsolvability of Planning Tasks</t>
   </si>
   <si>
-    <t>Eifler, Rebecca and Steinmetz, Marcel and Torralba, Alvaro and Hoffmann, J{\"o}rg</t>
-  </si>
-  <si>
     <t>Plan-Space Explanation via Plan-Property Dependencies: Faster Algorithms \&amp; More Powerful Properties.</t>
   </si>
   <si>
@@ -172,13 +169,7 @@
     <t>A New Approach to Plan-Space Explanation: Analyzing Plan-Property Dependencies in Oversubscription Planning</t>
   </si>
   <si>
-    <t>ifler, Rebecca and Brandao, Martim and Coles, Amanda and Frank, Jeremy and Hoffmann, J{\"o}rg</t>
-  </si>
-  <si>
     <t>Evaluating Plan-Property Dependencies: A Web-Based Platform and User Study</t>
-  </si>
-  <si>
-    <t>G{\"o}belbecker, Moritz and Keller, Thomas and Eyerich, Patrick and Brenner, Michael and Nebel, Bernhard</t>
   </si>
   <si>
     <t>Coming Up with Good Excuses: What to Do When No Plan Can be Found</t>
@@ -636,6 +627,15 @@
   </si>
   <si>
     <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Eifler, Rebecca and Steinmetz, Marcel and Torralba, Alvaro and Hoffmann, Jörg</t>
+  </si>
+  <si>
+    <t>ifler, Rebecca and Brandao, Martim and Coles, Amanda and Frank, Jeremy and Hoffmann, Jörg</t>
+  </si>
+  <si>
+    <t>Göbelbecker, Moritz and Keller, Thomas and Eyerich, Patrick and Brenner, Michael and Nebel, Bernhard</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:EZ274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="118" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -1613,10 +1613,10 @@
       <c r="N1" s="117"/>
       <c r="O1" s="117"/>
       <c r="P1" s="110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R1" s="117"/>
       <c r="S1" s="117"/>
@@ -1627,7 +1627,7 @@
       <c r="X1" s="117"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AA1" s="117"/>
       <c r="AB1" s="117"/>
@@ -1638,17 +1638,17 @@
     </row>
     <row r="2" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="118" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F2" s="117"/>
       <c r="G2" s="117"/>
       <c r="H2" s="117"/>
       <c r="I2" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J2" s="117"/>
       <c r="K2" s="118" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
@@ -1686,7 +1686,7 @@
         <v>28</v>
       </c>
       <c r="Y2" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z2" s="110" t="s">
         <v>9</v>
@@ -1698,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="AC2" s="110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:156" ht="20" x14ac:dyDescent="0.2">
@@ -3273,10 +3273,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="111" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
@@ -3448,13 +3448,13 @@
         <v>2020</v>
       </c>
       <c r="B13" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="D13" s="111" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="111"/>
       <c r="F13" s="111"/>
@@ -3629,10 +3629,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D14" s="113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="111"/>
@@ -3809,10 +3809,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="111"/>
@@ -3983,10 +3983,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="111"/>
       <c r="F16" s="111"/>
@@ -4156,13 +4156,13 @@
         <v>2013</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="111"/>
       <c r="F17" s="111"/>
@@ -4330,13 +4330,13 @@
         <v>2020</v>
       </c>
       <c r="B18" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="111"/>
       <c r="F18" s="111" t="s">
@@ -4516,13 +4516,13 @@
         <v>2018</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="111" t="s">
         <v>3</v>
@@ -4697,10 +4697,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="111" t="s">
         <v>3</v>
@@ -4878,13 +4878,13 @@
         <v>2016</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="111" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="111" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="111" t="s">
         <v>3</v>
@@ -5056,13 +5056,13 @@
         <v>2017</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" s="111" t="s">
         <v>3</v>
@@ -5228,13 +5228,13 @@
         <v>2019</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" s="111"/>
       <c r="F23" s="111"/>
@@ -5402,13 +5402,13 @@
         <v>2021</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="111"/>
       <c r="F24" s="111"/>
@@ -5574,13 +5574,13 @@
         <v>2018</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="111" t="s">
         <v>3</v>
@@ -5751,10 +5751,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="111"/>
       <c r="F26" s="111"/>
@@ -5920,13 +5920,13 @@
         <v>2021</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="111"/>
       <c r="F27" s="111" t="s">
@@ -6098,13 +6098,13 @@
         <v>2020</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="111" t="s">
         <v>3</v>
@@ -6276,13 +6276,13 @@
         <v>2019</v>
       </c>
       <c r="B29" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E29" s="111" t="s">
         <v>3</v>
@@ -6454,13 +6454,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="111"/>
@@ -6634,13 +6634,13 @@
         <v>2018</v>
       </c>
       <c r="B31" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="111" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="111"/>
       <c r="F31" s="111" t="s">
@@ -6819,10 +6819,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E32" s="111"/>
       <c r="F32" s="111" t="s">
@@ -6994,13 +6994,13 @@
         <v>2020</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
@@ -7173,10 +7173,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E34" s="111"/>
       <c r="F34" s="111"/>
@@ -7342,13 +7342,13 @@
         <v>2018</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E35" s="111"/>
       <c r="F35" s="111"/>
@@ -7519,10 +7519,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E36" s="111"/>
       <c r="F36" s="111"/>
@@ -7693,10 +7693,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="111" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E37" s="111"/>
       <c r="F37" s="111"/>
@@ -7867,10 +7867,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="111"/>
       <c r="F38" s="111"/>
@@ -8041,10 +8041,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="111" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="111"/>
@@ -8211,10 +8211,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="111" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="111"/>
       <c r="F40" s="111" t="s">
@@ -8378,13 +8378,13 @@
         <v>2022</v>
       </c>
       <c r="B41" s="111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" s="111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="111"/>
       <c r="F41" s="111" t="s">
@@ -8552,13 +8552,13 @@
         <v>2017</v>
       </c>
       <c r="B42" s="111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="111"/>
       <c r="F42" s="111"/>
@@ -8732,7 +8732,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="111" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="111"/>
@@ -8896,13 +8896,13 @@
         <v>2019</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D44" s="111" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="111"/>
@@ -9073,10 +9073,10 @@
         <v>35</v>
       </c>
       <c r="C45" s="111" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D45" s="111" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="111" t="s">
@@ -9246,13 +9246,13 @@
         <v>2019</v>
       </c>
       <c r="B46" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E46" s="111" t="s">
         <v>3</v>
@@ -9424,13 +9424,13 @@
         <v>2019</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="111" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>3</v>
@@ -9602,13 +9602,13 @@
         <v>2019</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>3</v>
@@ -9782,7 +9782,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="111" t="s">
@@ -9950,13 +9950,13 @@
         <v>2020</v>
       </c>
       <c r="B50" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E50" s="111"/>
       <c r="F50" s="111" t="s">
@@ -10124,13 +10124,13 @@
         <v>2019</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" s="111"/>
       <c r="F51" s="111"/>
@@ -10294,13 +10294,13 @@
         <v>2022</v>
       </c>
       <c r="B52" s="111" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E52" s="111"/>
       <c r="F52" s="111" t="s">
@@ -10475,10 +10475,10 @@
         <v>35</v>
       </c>
       <c r="C53" s="111" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D53" s="111" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="111"/>
       <c r="F53" s="111" t="s">
@@ -10652,7 +10652,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E54" s="111"/>
       <c r="F54" s="111"/>
@@ -10817,10 +10817,10 @@
         <v>35</v>
       </c>
       <c r="C55" s="111" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E55" s="111"/>
       <c r="F55" s="111"/>
@@ -10982,13 +10982,13 @@
         <v>2022</v>
       </c>
       <c r="B56" s="111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C56" s="111" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D56" s="115" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E56" s="111"/>
       <c r="F56" s="111"/>
@@ -11155,10 +11155,10 @@
         <v>29</v>
       </c>
       <c r="C57" s="111" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E57" s="111"/>
       <c r="F57" s="111"/>
@@ -11326,13 +11326,13 @@
         <v>2020</v>
       </c>
       <c r="B58" s="111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C58" s="111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E58" s="111"/>
       <c r="F58" s="111"/>
@@ -11501,10 +11501,10 @@
         <v>35</v>
       </c>
       <c r="C59" s="111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" s="111"/>
       <c r="F59" s="111" t="s">
@@ -11674,13 +11674,13 @@
         <v>2011</v>
       </c>
       <c r="B60" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="111" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D60" s="111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E60" s="111"/>
       <c r="F60" s="111"/>
@@ -11844,13 +11844,13 @@
         <v>2021</v>
       </c>
       <c r="B61" s="111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" s="111"/>
       <c r="F61" s="111"/>
@@ -12010,13 +12010,13 @@
         <v>2017</v>
       </c>
       <c r="B62" s="111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E62" s="111"/>
       <c r="F62" s="111"/>
@@ -12178,13 +12178,13 @@
         <v>2015</v>
       </c>
       <c r="B63" s="111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" s="111" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E63" s="111"/>
       <c r="F63" s="111"/>
@@ -12354,13 +12354,13 @@
         <v>2013</v>
       </c>
       <c r="B64" s="111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="111"/>
       <c r="F64" s="111"/>
@@ -12526,13 +12526,13 @@
         <v>2017</v>
       </c>
       <c r="B65" s="111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
@@ -12692,13 +12692,13 @@
         <v>2019</v>
       </c>
       <c r="B66" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E66" s="111"/>
       <c r="F66" s="111"/>
@@ -12862,13 +12862,13 @@
         <v>2018</v>
       </c>
       <c r="B67" s="111" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E67" s="111"/>
       <c r="F67" s="111"/>
@@ -13030,13 +13030,13 @@
         <v>2017</v>
       </c>
       <c r="B68" s="111" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D68" s="111" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E68" s="111"/>
       <c r="F68" s="111"/>
@@ -13204,13 +13204,13 @@
         <v>2019</v>
       </c>
       <c r="B69" s="111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D69" s="111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E69" s="111"/>
       <c r="F69" s="111"/>
@@ -13370,13 +13370,13 @@
         <v>2021</v>
       </c>
       <c r="B70" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70" s="111" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D70" s="111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E70" s="111"/>
       <c r="F70" s="111"/>
@@ -13538,13 +13538,13 @@
         <v>2022</v>
       </c>
       <c r="B71" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="111" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D71" s="111" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E71" s="111"/>
       <c r="F71" s="111"/>
@@ -13706,13 +13706,13 @@
         <v>2019</v>
       </c>
       <c r="B72" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" s="111" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E72" s="111"/>
       <c r="F72" s="111"/>
@@ -13874,13 +13874,13 @@
         <v>2017</v>
       </c>
       <c r="B73" s="111" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C73" s="111" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D73" s="111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E73" s="111"/>
       <c r="F73" s="111"/>
@@ -14042,13 +14042,13 @@
         <v>2021</v>
       </c>
       <c r="B74" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C74" s="111" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D74" s="111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E74" s="111"/>
       <c r="F74" s="111"/>
@@ -14216,13 +14216,13 @@
         <v>2021</v>
       </c>
       <c r="B75" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C75" s="111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D75" s="116" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E75" s="111"/>
       <c r="F75" s="111"/>
@@ -14396,13 +14396,13 @@
         <v>2021</v>
       </c>
       <c r="B76" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C76" s="111" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D76" s="111" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E76" s="111"/>
       <c r="F76" s="111"/>
@@ -14566,13 +14566,13 @@
         <v>2021</v>
       </c>
       <c r="B77" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C77" s="111" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D77" s="111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E77" s="111"/>
       <c r="F77" s="111"/>
@@ -14736,13 +14736,13 @@
         <v>2021</v>
       </c>
       <c r="B78" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C78" s="111" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E78" s="111"/>
       <c r="F78" s="111" t="s">
@@ -14910,13 +14910,13 @@
         <v>2021</v>
       </c>
       <c r="B79" s="111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C79" s="111" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D79" s="111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E79" s="111"/>
       <c r="F79" s="111"/>
@@ -15084,13 +15084,13 @@
         <v>2021</v>
       </c>
       <c r="B80" s="111" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C80" s="111" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E80" s="111"/>
       <c r="F80" s="111" t="s">

--- a/src/compiler/data/XAIP.xlsx
+++ b/src/compiler/data/XAIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarathsreedharan/mycode/survey-visualizer/src/compiler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761403D8-AC0D-4342-A731-F3C4E626E2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D2AE8-49EC-E643-A5DA-29DF39F0DB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="205">
   <si>
     <t>Year</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Titles</t>
   </si>
   <si>
-    <t>Model-rec</t>
-  </si>
-  <si>
-    <t>InfRec</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -83,18 +77,6 @@
   </si>
   <si>
     <t>Addresses Vocabulary Mismatch</t>
-  </si>
-  <si>
-    <t>Deterministic Planning</t>
-  </si>
-  <si>
-    <t>OverSubscription Planning</t>
-  </si>
-  <si>
-    <t>Temporal/Numeric Planning</t>
-  </si>
-  <si>
-    <t>Stochastic Planning</t>
   </si>
   <si>
     <t>Motion Planning</t>
@@ -620,9 +602,6 @@
     <t>Interpretable Behavioral</t>
   </si>
   <si>
-    <t>Reinforcement Learning Setting</t>
-  </si>
-  <si>
     <t>Problem Setting</t>
   </si>
   <si>
@@ -636,6 +615,27 @@
   </si>
   <si>
     <t>Göbelbecker, Moritz and Keller, Thomas and Eyerich, Patrick and Brenner, Michael and Nebel, Bernhard</t>
+  </si>
+  <si>
+    <t>Model Reconciliation</t>
+  </si>
+  <si>
+    <t>Inferential Reconciliation</t>
+  </si>
+  <si>
+    <t>Stochastic Dynamics</t>
+  </si>
+  <si>
+    <t>Deterministic Dynamics</t>
+  </si>
+  <si>
+    <t>OverSubscription Setting</t>
+  </si>
+  <si>
+    <t>Temporal/Numeric</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1341,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1354,8 +1350,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1576,9 +1576,9 @@
   </sheetPr>
   <dimension ref="A1:EZ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1587,150 +1587,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="118" t="s">
+      <c r="E1" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="117"/>
+      <c r="AD1" s="116"/>
     </row>
     <row r="2" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="110" t="s">
+      <c r="E2" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="116"/>
+      <c r="K2" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="V2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="110" t="s">
+      <c r="W2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="110" t="s">
+      <c r="X2" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z2" s="110" t="s">
+      <c r="Y2" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="110" t="s">
+      <c r="AB2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD2" s="110" t="s">
-        <v>198</v>
+      <c r="AC2" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD2" s="108" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:156" ht="20" x14ac:dyDescent="0.2">
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="L3" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="110" t="s">
+      <c r="M3" s="108" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="110" t="s">
-        <v>17</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -1857,28 +1857,28 @@
       <c r="EZ3" s="1"/>
     </row>
     <row r="4" spans="1:156" ht="20" x14ac:dyDescent="0.2">
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2004,59 +2004,59 @@
       <c r="EZ4" s="1"/>
     </row>
     <row r="5" spans="1:156" ht="230" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111">
+      <c r="A5" s="109">
         <v>2017</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111" t="s">
+      <c r="B5" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="111" t="s">
+      <c r="L5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111" t="s">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="118"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -2182,58 +2182,58 @@
       <c r="EZ5" s="4"/>
     </row>
     <row r="6" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="111">
+      <c r="A6" s="109">
         <v>2022</v>
       </c>
-      <c r="B6" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111" t="s">
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="111" t="s">
+      <c r="Q6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="104"/>
       <c r="AG6" s="3"/>
@@ -2362,54 +2362,56 @@
       <c r="EZ6" s="8"/>
     </row>
     <row r="7" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111">
+      <c r="A7" s="109">
         <v>2012</v>
       </c>
-      <c r="B7" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111" t="s">
+      <c r="B7" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111" t="s">
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111" t="s">
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111" t="s">
+      <c r="N7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111" t="s">
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
       <c r="AE7" s="105"/>
       <c r="AF7" s="106"/>
       <c r="AG7" s="107"/>
@@ -2538,56 +2540,58 @@
       <c r="EZ7" s="8"/>
     </row>
     <row r="8" spans="1:156" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111">
+      <c r="A8" s="109">
         <v>2014</v>
       </c>
-      <c r="B8" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111" t="s">
+      <c r="B8" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111" t="s">
+      <c r="N8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="111" t="s">
+      <c r="O8" s="109"/>
+      <c r="P8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111" t="s">
+      <c r="Q8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
@@ -2716,60 +2720,60 @@
       <c r="EZ8" s="15"/>
     </row>
     <row r="9" spans="1:156" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="111">
+      <c r="A9" s="109">
         <v>2018</v>
       </c>
-      <c r="B9" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111" t="s">
+      <c r="B9" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111" t="s">
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="111" t="s">
+      <c r="M9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="111" t="s">
+      <c r="N9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111" t="s">
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="20"/>
@@ -2898,62 +2902,62 @@
       <c r="EZ9" s="16"/>
     </row>
     <row r="10" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111">
+      <c r="A10" s="109">
         <v>2022</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111" t="s">
+      <c r="B10" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111" t="s">
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="L10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="111" t="s">
+      <c r="M10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="111" t="s">
+      <c r="N10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111" t="s">
+      <c r="O10" s="109"/>
+      <c r="P10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="111" t="s">
+      <c r="Q10" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="18"/>
@@ -3082,62 +3086,62 @@
       <c r="EZ10" s="15"/>
     </row>
     <row r="11" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="111">
+      <c r="A11" s="109">
         <v>2019</v>
       </c>
-      <c r="B11" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111" t="s">
+      <c r="B11" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111" t="s">
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="111" t="s">
+      <c r="L11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="111" t="s">
+      <c r="M11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="111" t="s">
+      <c r="N11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111" t="s">
+      <c r="O11" s="109"/>
+      <c r="P11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="111" t="s">
+      <c r="Q11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="20"/>
@@ -3266,56 +3270,56 @@
       <c r="EZ11" s="16"/>
     </row>
     <row r="12" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111">
+      <c r="A12" s="109">
         <v>2020</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111" t="s">
+      <c r="B12" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111" t="s">
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111" t="s">
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="111" t="s">
+      <c r="N12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111" t="s">
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="111" t="s">
+      <c r="R12" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="23"/>
@@ -3444,56 +3448,56 @@
       <c r="EZ12" s="24"/>
     </row>
     <row r="13" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="111">
+      <c r="A13" s="109">
         <v>2020</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111" t="s">
+      <c r="B13" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111" t="s">
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="111" t="s">
+      <c r="N13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111" t="s">
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="111" t="s">
+      <c r="R13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="23"/>
@@ -3622,58 +3626,58 @@
       <c r="EZ13" s="24"/>
     </row>
     <row r="14" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111">
+      <c r="A14" s="109">
         <v>2022</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111" t="s">
+      <c r="B14" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111" t="s">
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111" t="s">
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="111" t="s">
+      <c r="N14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111" t="s">
+      <c r="O14" s="109"/>
+      <c r="P14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="111" t="s">
+      <c r="Q14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="111" t="s">
+      <c r="R14" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="18"/>
@@ -3802,52 +3806,52 @@
       <c r="EZ14" s="15"/>
     </row>
     <row r="15" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="111">
+      <c r="A15" s="109">
         <v>2010</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111" t="s">
+      <c r="B15" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111" t="s">
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="111" t="s">
+      <c r="M15" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111" t="s">
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="20"/>
@@ -3976,54 +3980,54 @@
       <c r="EZ15" s="16"/>
     </row>
     <row r="16" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111">
+      <c r="A16" s="109">
         <v>2009</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111" t="s">
+      <c r="B16" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111" t="s">
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="111" t="s">
+      <c r="M16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111" t="s">
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111" t="s">
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="18"/>
@@ -4152,52 +4156,52 @@
       <c r="EZ16" s="15"/>
     </row>
     <row r="17" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="111">
+      <c r="A17" s="109">
         <v>2013</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111" t="s">
+      <c r="B17" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111" t="s">
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111" t="s">
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111" t="s">
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="18"/>
@@ -4326,64 +4330,64 @@
       <c r="EZ17" s="15"/>
     </row>
     <row r="18" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111">
+      <c r="A18" s="109">
         <v>2020</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111" t="s">
+      <c r="B18" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111" t="s">
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111" t="s">
+      <c r="K18" s="109"/>
+      <c r="L18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="111" t="s">
+      <c r="M18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="111" t="s">
+      <c r="N18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111" t="s">
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111" t="s">
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="18"/>
@@ -4512,56 +4516,56 @@
       <c r="EZ18" s="15"/>
     </row>
     <row r="19" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="111">
+      <c r="A19" s="109">
         <v>2018</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="111" t="s">
+      <c r="B19" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111" t="s">
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="111" t="s">
+      <c r="I19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111" t="s">
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111" t="s">
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111" t="s">
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35"/>
       <c r="AG19" s="39"/>
@@ -4690,62 +4694,62 @@
       <c r="EZ19" s="36"/>
     </row>
     <row r="20" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="111">
+      <c r="A20" s="109">
         <v>2019</v>
       </c>
-      <c r="B20" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="111" t="s">
+      <c r="B20" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111" t="s">
+      <c r="F20" s="109"/>
+      <c r="G20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="111" t="s">
+      <c r="I20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111" t="s">
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="111" t="s">
+      <c r="O20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="111" t="s">
+      <c r="P20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111" t="s">
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111" t="s">
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="16"/>
       <c r="AG20" s="18"/>
@@ -4874,56 +4878,56 @@
       <c r="EZ20" s="15"/>
     </row>
     <row r="21" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="111">
+      <c r="A21" s="109">
         <v>2016</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111" t="s">
+      <c r="F21" s="109"/>
+      <c r="G21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111" t="s">
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="111" t="s">
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="111"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="16"/>
       <c r="AG21" s="18"/>
@@ -5052,50 +5056,50 @@
       <c r="EZ21" s="15"/>
     </row>
     <row r="22" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111">
+      <c r="A22" s="109">
         <v>2017</v>
       </c>
-      <c r="B22" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="111" t="s">
+      <c r="B22" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111" t="s">
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111" t="s">
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="16"/>
       <c r="AG22" s="18"/>
@@ -5224,52 +5228,52 @@
       <c r="EZ22" s="15"/>
     </row>
     <row r="23" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="111">
+      <c r="A23" s="109">
         <v>2019</v>
       </c>
-      <c r="B23" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111" t="s">
+      <c r="B23" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111" t="s">
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111" t="s">
+      <c r="K23" s="109"/>
+      <c r="L23" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111" t="s">
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="20"/>
@@ -5398,50 +5402,50 @@
       <c r="EZ23" s="16"/>
     </row>
     <row r="24" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114">
+      <c r="A24" s="112">
         <v>2021</v>
       </c>
-      <c r="B24" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111" t="s">
+      <c r="B24" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111" t="s">
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111" t="s">
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="18"/>
@@ -5570,52 +5574,52 @@
       <c r="EZ24" s="15"/>
     </row>
     <row r="25" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="111">
+      <c r="A25" s="109">
         <v>2018</v>
       </c>
-      <c r="B25" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="111" t="s">
+      <c r="B25" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111" t="s">
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111" t="s">
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111" t="s">
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
       <c r="AG25" s="20"/>
@@ -5744,50 +5748,50 @@
       <c r="EZ25" s="16"/>
     </row>
     <row r="26" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111">
+      <c r="A26" s="109">
         <v>2019</v>
       </c>
-      <c r="B26" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111" t="s">
+      <c r="B26" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111" t="s">
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111" t="s">
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="111"/>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="20"/>
@@ -5916,56 +5920,56 @@
       <c r="EZ26" s="16"/>
     </row>
     <row r="27" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="111">
+      <c r="A27" s="109">
         <v>2021</v>
       </c>
-      <c r="B27" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111" t="s">
+      <c r="B27" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111" t="s">
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="111" t="s">
+      <c r="K27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="111" t="s">
+      <c r="L27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="111" t="s">
+      <c r="M27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111" t="s">
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="20"/>
@@ -6094,56 +6098,56 @@
       <c r="EZ27" s="16"/>
     </row>
     <row r="28" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111">
+      <c r="A28" s="109">
         <v>2020</v>
       </c>
-      <c r="B28" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="111" t="s">
+      <c r="B28" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111" t="s">
+      <c r="F28" s="109"/>
+      <c r="G28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111" t="s">
+      <c r="H28" s="109"/>
+      <c r="I28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111" t="s">
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111" t="s">
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111" t="s">
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="18"/>
@@ -6272,56 +6276,56 @@
       <c r="EZ28" s="15"/>
     </row>
     <row r="29" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="111">
+      <c r="A29" s="109">
         <v>2019</v>
       </c>
-      <c r="B29" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="111" t="s">
+      <c r="B29" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111" t="s">
+      <c r="F29" s="109"/>
+      <c r="G29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111" t="s">
+      <c r="H29" s="109"/>
+      <c r="I29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111" t="s">
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111" t="s">
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111" t="s">
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
       <c r="AG29" s="20"/>
@@ -6450,58 +6454,58 @@
       <c r="EZ29" s="16"/>
     </row>
     <row r="30" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111">
+      <c r="A30" s="109">
         <v>2020</v>
       </c>
-      <c r="B30" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111" t="s">
+      <c r="B30" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111" t="s">
+      <c r="K30" s="109"/>
+      <c r="L30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="111" t="s">
+      <c r="M30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N30" s="111" t="s">
+      <c r="N30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111" t="s">
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111" t="s">
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
       <c r="AE30" s="16"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="18"/>
@@ -6630,60 +6634,60 @@
       <c r="EZ30" s="15"/>
     </row>
     <row r="31" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="111">
+      <c r="A31" s="109">
         <v>2018</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111" t="s">
+      <c r="E31" s="109"/>
+      <c r="F31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="111" t="s">
+      <c r="G31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111" t="s">
+      <c r="K31" s="109"/>
+      <c r="L31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="111" t="s">
+      <c r="M31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111" t="s">
+      <c r="N31" s="109"/>
+      <c r="O31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111" t="s">
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111" t="s">
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="20"/>
@@ -6812,56 +6816,56 @@
       <c r="EZ31" s="16"/>
     </row>
     <row r="32" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111">
+      <c r="A32" s="109">
         <v>2022</v>
       </c>
-      <c r="B32" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="111" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111" t="s">
+      <c r="B32" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111" t="s">
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111" t="s">
+      <c r="K32" s="109"/>
+      <c r="L32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="111" t="s">
+      <c r="M32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111" t="s">
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="111" t="s">
+      <c r="Q32" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="16"/>
       <c r="AG32" s="18"/>
@@ -6990,54 +6994,54 @@
       <c r="EZ32" s="15"/>
     </row>
     <row r="33" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="111">
+      <c r="A33" s="109">
         <v>2020</v>
       </c>
-      <c r="B33" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111" t="s">
+      <c r="B33" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111" t="s">
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111" t="s">
+      <c r="K33" s="109"/>
+      <c r="L33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111" t="s">
+      <c r="M33" s="109"/>
+      <c r="N33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111" t="s">
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="18"/>
@@ -7166,50 +7170,50 @@
       <c r="EZ33" s="15"/>
     </row>
     <row r="34" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111">
+      <c r="A34" s="109">
         <v>2019</v>
       </c>
-      <c r="B34" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111" t="s">
+      <c r="B34" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111" t="s">
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111" t="s">
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="111"/>
-      <c r="Y34" s="111"/>
-      <c r="Z34" s="111"/>
-      <c r="AA34" s="111"/>
-      <c r="AB34" s="111"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="16"/>
       <c r="AG34" s="18"/>
@@ -7338,52 +7342,52 @@
       <c r="EZ34" s="15"/>
     </row>
     <row r="35" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="111">
+      <c r="A35" s="109">
         <v>2018</v>
       </c>
-      <c r="B35" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111" t="s">
+      <c r="B35" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111" t="s">
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111" t="s">
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111" t="s">
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
       <c r="AE35" s="15"/>
       <c r="AF35" s="16"/>
       <c r="AG35" s="18"/>
@@ -7512,52 +7516,52 @@
       <c r="EZ35" s="15"/>
     </row>
     <row r="36" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111">
+      <c r="A36" s="109">
         <v>2022</v>
       </c>
-      <c r="B36" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111" t="s">
+      <c r="B36" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111" t="s">
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111" t="s">
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111" t="s">
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="111"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="111"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="16"/>
       <c r="AG36" s="18"/>
@@ -7686,52 +7690,52 @@
       <c r="EZ36" s="15"/>
     </row>
     <row r="37" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="111">
+      <c r="A37" s="109">
         <v>2019</v>
       </c>
-      <c r="B37" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111" t="s">
+      <c r="B37" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111" t="s">
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111" t="s">
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111" t="s">
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="18"/>
@@ -7860,52 +7864,52 @@
       <c r="EZ37" s="15"/>
     </row>
     <row r="38" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111">
+      <c r="A38" s="109">
         <v>2020</v>
       </c>
-      <c r="B38" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111" t="s">
+      <c r="B38" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111" t="s">
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111" t="s">
+      <c r="M38" s="109"/>
+      <c r="N38" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111" t="s">
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="16"/>
       <c r="AG38" s="18"/>
@@ -8034,48 +8038,48 @@
       <c r="EZ38" s="15"/>
     </row>
     <row r="39" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="111">
+      <c r="A39" s="109">
         <v>2020</v>
       </c>
-      <c r="B39" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111" t="s">
+      <c r="B39" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111" t="s">
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
       <c r="AE39" s="47"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="48"/>
@@ -8204,48 +8208,48 @@
       <c r="EZ39" s="47"/>
     </row>
     <row r="40" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="111">
+      <c r="A40" s="109">
         <v>2018</v>
       </c>
-      <c r="B40" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111" t="s">
+      <c r="B40" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111" t="s">
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="16"/>
       <c r="AG40" s="18"/>
@@ -8374,52 +8378,52 @@
       <c r="EZ40" s="15"/>
     </row>
     <row r="41" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="111">
+      <c r="A41" s="109">
         <v>2022</v>
       </c>
-      <c r="B41" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111" t="s">
+      <c r="B41" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111" t="s">
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="109"/>
+      <c r="O41" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111" t="s">
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="111"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="111" t="s">
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="111"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="111"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="15"/>
       <c r="AG41" s="18"/>
@@ -8548,52 +8552,52 @@
       <c r="EZ41" s="15"/>
     </row>
     <row r="42" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111">
+      <c r="A42" s="109">
         <v>2017</v>
       </c>
-      <c r="B42" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111" t="s">
+      <c r="B42" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111" t="s">
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="109"/>
+      <c r="O42" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111" t="s">
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111" t="s">
+      <c r="U42" s="109"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="111"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="18"/>
@@ -8722,48 +8726,48 @@
       <c r="EZ42" s="15"/>
     </row>
     <row r="43" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="111">
+      <c r="A43" s="109">
         <v>2020</v>
       </c>
-      <c r="B43" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111" t="s">
+      <c r="B43" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111" t="s">
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
       <c r="AE43" s="15"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="18"/>
@@ -8892,52 +8896,52 @@
       <c r="EZ43" s="15"/>
     </row>
     <row r="44" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="111">
+      <c r="A44" s="109">
         <v>2019</v>
       </c>
-      <c r="B44" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111" t="s">
+      <c r="B44" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111" t="s">
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111" t="s">
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="111" t="s">
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z44" s="111"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="111"/>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="111"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="18"/>
@@ -9066,54 +9070,54 @@
       <c r="EZ44" s="15"/>
     </row>
     <row r="45" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="111">
+      <c r="A45" s="109">
         <v>2021</v>
       </c>
-      <c r="B45" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111" t="s">
+      <c r="B45" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111" t="s">
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111" t="s">
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="111" t="s">
+      <c r="Q45" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-      <c r="U45" s="111" t="s">
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
       <c r="AE45" s="35"/>
       <c r="AF45" s="36"/>
       <c r="AG45" s="38"/>
@@ -9242,56 +9246,56 @@
       <c r="EZ45" s="35"/>
     </row>
     <row r="46" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111">
+      <c r="A46" s="109">
         <v>2019</v>
       </c>
-      <c r="B46" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="111" t="s">
+      <c r="B46" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111" t="s">
+      <c r="F46" s="109"/>
+      <c r="G46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111" t="s">
+      <c r="H46" s="109"/>
+      <c r="I46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111" t="s">
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111" t="s">
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="111" t="s">
+      <c r="U46" s="109"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="111"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
       <c r="AE46" s="15"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="18"/>
@@ -9420,56 +9424,56 @@
       <c r="EZ46" s="15"/>
     </row>
     <row r="47" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="111">
+      <c r="A47" s="109">
         <v>2019</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="111" t="s">
+      <c r="B47" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111" t="s">
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="111" t="s">
+      <c r="I47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111" t="s">
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109"/>
+      <c r="O47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111" t="s">
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111" t="s">
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="109"/>
+      <c r="X47" s="109"/>
+      <c r="Y47" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
-      <c r="AC47" s="111"/>
-      <c r="AD47" s="111"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="109"/>
       <c r="AE47" s="16"/>
       <c r="AF47" s="16"/>
       <c r="AG47" s="18"/>
@@ -9598,52 +9602,52 @@
       <c r="EZ47" s="15"/>
     </row>
     <row r="48" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="111">
+      <c r="A48" s="109">
         <v>2019</v>
       </c>
-      <c r="B48" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="111" t="s">
+      <c r="B48" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111" t="s">
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="111"/>
-      <c r="L48" s="111"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="111" t="s">
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="111"/>
-      <c r="V48" s="111"/>
-      <c r="W48" s="111"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="111" t="s">
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z48" s="111"/>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="111"/>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="111"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
       <c r="AE48" s="16"/>
       <c r="AF48" s="15"/>
       <c r="AG48" s="18"/>
@@ -9772,52 +9776,52 @@
       <c r="EZ48" s="15"/>
     </row>
     <row r="49" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="111">
+      <c r="A49" s="109">
         <v>2019</v>
       </c>
-      <c r="B49" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111" t="s">
+      <c r="B49" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111" t="s">
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111" t="s">
+      <c r="M49" s="109"/>
+      <c r="N49" s="109"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111" t="s">
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109"/>
+      <c r="U49" s="109"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AA49" s="111"/>
-      <c r="AB49" s="111"/>
-      <c r="AC49" s="111"/>
-      <c r="AD49" s="111"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="109"/>
       <c r="AE49" s="15"/>
       <c r="AF49" s="16"/>
       <c r="AG49" s="18"/>
@@ -9946,52 +9950,52 @@
       <c r="EZ49" s="15"/>
     </row>
     <row r="50" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111">
+      <c r="A50" s="109">
         <v>2020</v>
       </c>
-      <c r="B50" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111" t="s">
+      <c r="B50" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111" t="s">
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111" t="s">
+      <c r="M50" s="109"/>
+      <c r="N50" s="109"/>
+      <c r="O50" s="109"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111" t="s">
+      <c r="R50" s="109"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="109"/>
+      <c r="U50" s="109"/>
+      <c r="V50" s="109"/>
+      <c r="W50" s="109"/>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
+      <c r="AA50" s="109"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="109"/>
+      <c r="AD50" s="109"/>
       <c r="AE50" s="15"/>
       <c r="AF50" s="16"/>
       <c r="AG50" s="18"/>
@@ -10120,48 +10124,48 @@
       <c r="EZ50" s="15"/>
     </row>
     <row r="51" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="111">
+      <c r="A51" s="109">
         <v>2019</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111" t="s">
+      <c r="B51" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111" t="s">
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="111"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
+      <c r="AA51" s="109"/>
+      <c r="AB51" s="109"/>
+      <c r="AC51" s="109"/>
+      <c r="AD51" s="109"/>
       <c r="AE51" s="16"/>
       <c r="AF51" s="15"/>
       <c r="AG51" s="18"/>
@@ -10290,56 +10294,56 @@
       <c r="EZ51" s="15"/>
     </row>
     <row r="52" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="111">
+      <c r="A52" s="109">
         <v>2022</v>
       </c>
-      <c r="B52" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111" t="s">
+      <c r="B52" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111" t="s">
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="111" t="s">
+      <c r="M52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="111"/>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111" t="s">
+      <c r="N52" s="109"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="111" t="s">
+      <c r="Q52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111" t="s">
+      <c r="R52" s="109"/>
+      <c r="S52" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="111"/>
-      <c r="W52" s="111"/>
-      <c r="X52" s="111"/>
-      <c r="Y52" s="111"/>
-      <c r="Z52" s="111"/>
-      <c r="AA52" s="111"/>
-      <c r="AB52" s="111"/>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="111"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="109"/>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="16"/>
       <c r="AG52" s="18"/>
@@ -10468,52 +10472,52 @@
       <c r="EZ52" s="15"/>
     </row>
     <row r="53" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="111">
+      <c r="A53" s="109">
         <v>2022</v>
       </c>
-      <c r="B53" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111" t="s">
+      <c r="B53" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="111" t="s">
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="109"/>
+      <c r="L53" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="111"/>
-      <c r="N53" s="111"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111" t="s">
+      <c r="M53" s="109"/>
+      <c r="N53" s="109"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q53" s="111" t="s">
+      <c r="Q53" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="111"/>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
+      <c r="R53" s="109"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="109"/>
+      <c r="U53" s="109"/>
+      <c r="V53" s="109"/>
+      <c r="W53" s="109"/>
+      <c r="X53" s="109"/>
+      <c r="Y53" s="109"/>
+      <c r="Z53" s="109"/>
+      <c r="AA53" s="109"/>
+      <c r="AB53" s="109"/>
+      <c r="AC53" s="109"/>
+      <c r="AD53" s="109"/>
       <c r="AE53" s="15"/>
       <c r="AF53" s="16"/>
       <c r="AG53" s="18"/>
@@ -10642,46 +10646,46 @@
       <c r="EZ53" s="15"/>
     </row>
     <row r="54" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111">
+      <c r="A54" s="109">
         <v>2020</v>
       </c>
-      <c r="B54" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="111"/>
-      <c r="W54" s="111"/>
-      <c r="X54" s="111"/>
-      <c r="Y54" s="111"/>
-      <c r="Z54" s="111"/>
-      <c r="AA54" s="111"/>
-      <c r="AB54" s="111"/>
-      <c r="AC54" s="111" t="s">
+      <c r="B54" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="109"/>
+      <c r="U54" s="109"/>
+      <c r="V54" s="109"/>
+      <c r="W54" s="109"/>
+      <c r="X54" s="109"/>
+      <c r="Y54" s="109"/>
+      <c r="Z54" s="109"/>
+      <c r="AA54" s="109"/>
+      <c r="AB54" s="109"/>
+      <c r="AC54" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD54" s="111"/>
+      <c r="AD54" s="109"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="16"/>
       <c r="AG54" s="18"/>
@@ -10810,44 +10814,44 @@
       <c r="EZ54" s="15"/>
     </row>
     <row r="55" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="111">
+      <c r="A55" s="109">
         <v>2019</v>
       </c>
-      <c r="B55" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="111"/>
-      <c r="Y55" s="111"/>
-      <c r="Z55" s="111"/>
-      <c r="AA55" s="111"/>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="111" t="s">
+      <c r="B55" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="109"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="109"/>
+      <c r="U55" s="109"/>
+      <c r="V55" s="109"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="109"/>
+      <c r="Y55" s="109"/>
+      <c r="Z55" s="109"/>
+      <c r="AA55" s="109"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="109"/>
+      <c r="AD55" s="109" t="s">
         <v>3</v>
       </c>
       <c r="AE55" s="15"/>
@@ -10978,46 +10982,46 @@
       <c r="EZ55" s="15"/>
     </row>
     <row r="56" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111">
+      <c r="A56" s="109">
         <v>2022</v>
       </c>
-      <c r="B56" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="111"/>
-      <c r="Y56" s="111"/>
-      <c r="Z56" s="111"/>
-      <c r="AA56" s="111"/>
-      <c r="AB56" s="111"/>
-      <c r="AC56" s="111" t="s">
+      <c r="B56" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
+      <c r="V56" s="109"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="109"/>
+      <c r="Y56" s="109"/>
+      <c r="Z56" s="109"/>
+      <c r="AA56" s="109"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD56" s="111" t="s">
+      <c r="AD56" s="109" t="s">
         <v>3</v>
       </c>
       <c r="AE56" s="15"/>
@@ -11148,50 +11152,50 @@
       <c r="EZ56" s="15"/>
     </row>
     <row r="57" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="111">
+      <c r="A57" s="109">
         <v>2021</v>
       </c>
-      <c r="B57" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="111"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="111"/>
-      <c r="X57" s="111"/>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="111" t="s">
+      <c r="B57" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="109"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="109"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="109"/>
+      <c r="Y57" s="109"/>
+      <c r="Z57" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AA57" s="111" t="s">
+      <c r="AA57" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AB57" s="111" t="s">
+      <c r="AB57" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="111" t="s">
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109" t="s">
         <v>3</v>
       </c>
       <c r="AE57" s="16"/>
@@ -11322,50 +11326,50 @@
       <c r="EZ57" s="16"/>
     </row>
     <row r="58" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111">
+      <c r="A58" s="109">
         <v>2020</v>
       </c>
-      <c r="B58" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111" t="s">
+      <c r="B58" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="111"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111"/>
-      <c r="P58" s="111"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111" t="s">
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="109"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
-      <c r="X58" s="111"/>
-      <c r="Y58" s="111" t="s">
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="111"/>
-      <c r="AA58" s="111"/>
-      <c r="AB58" s="111"/>
-      <c r="AC58" s="111"/>
-      <c r="AD58" s="111"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
       <c r="AE58" s="16"/>
       <c r="AF58" s="15"/>
       <c r="AG58" s="20"/>
@@ -11494,54 +11498,54 @@
       <c r="EZ58" s="16"/>
     </row>
     <row r="59" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111">
+      <c r="A59" s="109">
         <v>2020</v>
       </c>
-      <c r="B59" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111" t="s">
+      <c r="B59" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="111" t="s">
+      <c r="G59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111" t="s">
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="111"/>
-      <c r="N59" s="111" t="s">
+      <c r="M59" s="109"/>
+      <c r="N59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="111"/>
-      <c r="W59" s="111" t="s">
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="X59" s="111"/>
-      <c r="Y59" s="111"/>
-      <c r="Z59" s="111"/>
-      <c r="AA59" s="111"/>
-      <c r="AB59" s="111"/>
-      <c r="AC59" s="111"/>
-      <c r="AD59" s="111"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
       <c r="AE59" s="16"/>
       <c r="AF59" s="16"/>
       <c r="AG59" s="20"/>
@@ -11670,48 +11674,48 @@
       <c r="EZ59" s="16"/>
     </row>
     <row r="60" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111">
+      <c r="A60" s="109">
         <v>2011</v>
       </c>
-      <c r="B60" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111" t="s">
+      <c r="B60" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="111"/>
-      <c r="J60" s="111"/>
-      <c r="K60" s="111"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="111"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
-      <c r="P60" s="111"/>
-      <c r="Q60" s="111" t="s">
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R60" s="111"/>
-      <c r="S60" s="111"/>
-      <c r="T60" s="111"/>
-      <c r="U60" s="111"/>
-      <c r="V60" s="111"/>
-      <c r="W60" s="111"/>
-      <c r="X60" s="111"/>
-      <c r="Y60" s="111"/>
-      <c r="Z60" s="111"/>
-      <c r="AA60" s="111"/>
-      <c r="AB60" s="111"/>
-      <c r="AC60" s="111"/>
-      <c r="AD60" s="111"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="109"/>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
       <c r="AE60" s="15"/>
       <c r="AF60" s="16"/>
       <c r="AG60" s="18"/>
@@ -11840,44 +11844,44 @@
       <c r="EZ60" s="15"/>
     </row>
     <row r="61" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="111">
+      <c r="A61" s="109">
         <v>2021</v>
       </c>
-      <c r="B61" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="111"/>
-      <c r="W61" s="111"/>
-      <c r="X61" s="111"/>
-      <c r="Y61" s="111"/>
-      <c r="Z61" s="111"/>
-      <c r="AA61" s="111"/>
-      <c r="AB61" s="111"/>
-      <c r="AC61" s="111"/>
-      <c r="AD61" s="111"/>
+      <c r="B61" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="109"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="109"/>
+      <c r="V61" s="109"/>
+      <c r="W61" s="109"/>
+      <c r="X61" s="109"/>
+      <c r="Y61" s="109"/>
+      <c r="Z61" s="109"/>
+      <c r="AA61" s="109"/>
+      <c r="AB61" s="109"/>
+      <c r="AC61" s="109"/>
+      <c r="AD61" s="109"/>
       <c r="AE61" s="15"/>
       <c r="AF61" s="16"/>
       <c r="AG61" s="18"/>
@@ -12006,44 +12010,44 @@
       <c r="EZ61" s="15"/>
     </row>
     <row r="62" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="111">
+      <c r="A62" s="109">
         <v>2017</v>
       </c>
-      <c r="B62" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="111"/>
-      <c r="L62" s="111"/>
-      <c r="M62" s="111"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="111"/>
-      <c r="T62" s="111"/>
-      <c r="U62" s="111"/>
-      <c r="V62" s="111"/>
-      <c r="W62" s="111"/>
-      <c r="X62" s="111"/>
-      <c r="Y62" s="111"/>
-      <c r="Z62" s="111"/>
-      <c r="AA62" s="111"/>
-      <c r="AB62" s="111"/>
-      <c r="AC62" s="111"/>
-      <c r="AD62" s="111" t="s">
+      <c r="B62" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
+      <c r="N62" s="109"/>
+      <c r="O62" s="109"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
+      <c r="R62" s="109"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="109"/>
+      <c r="U62" s="109"/>
+      <c r="V62" s="109"/>
+      <c r="W62" s="109"/>
+      <c r="X62" s="109"/>
+      <c r="Y62" s="109"/>
+      <c r="Z62" s="109"/>
+      <c r="AA62" s="109"/>
+      <c r="AB62" s="109"/>
+      <c r="AC62" s="109"/>
+      <c r="AD62" s="109" t="s">
         <v>3</v>
       </c>
       <c r="AE62" s="15"/>
@@ -12174,54 +12178,54 @@
       <c r="EZ62" s="24"/>
     </row>
     <row r="63" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="111">
+      <c r="A63" s="109">
         <v>2015</v>
       </c>
-      <c r="B63" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="111"/>
-      <c r="K63" s="111"/>
-      <c r="L63" s="111"/>
-      <c r="M63" s="111"/>
-      <c r="N63" s="111"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111" t="s">
+      <c r="B63" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="109"/>
+      <c r="L63" s="109"/>
+      <c r="M63" s="109"/>
+      <c r="N63" s="109"/>
+      <c r="O63" s="109"/>
+      <c r="P63" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q63" s="111" t="s">
+      <c r="Q63" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R63" s="111"/>
-      <c r="S63" s="111"/>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111" t="s">
+      <c r="R63" s="109"/>
+      <c r="S63" s="109"/>
+      <c r="T63" s="109"/>
+      <c r="U63" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="V63" s="111"/>
-      <c r="W63" s="111"/>
-      <c r="X63" s="111"/>
-      <c r="Y63" s="111"/>
-      <c r="Z63" s="111"/>
-      <c r="AA63" s="111" t="s">
+      <c r="V63" s="109"/>
+      <c r="W63" s="109"/>
+      <c r="X63" s="109"/>
+      <c r="Y63" s="109"/>
+      <c r="Z63" s="109"/>
+      <c r="AA63" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AB63" s="111" t="s">
+      <c r="AB63" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AC63" s="111"/>
-      <c r="AD63" s="111"/>
+      <c r="AC63" s="109"/>
+      <c r="AD63" s="109"/>
       <c r="AE63" s="15"/>
       <c r="AF63" s="15"/>
       <c r="AG63" s="20"/>
@@ -12350,48 +12354,48 @@
       <c r="EZ63" s="16"/>
     </row>
     <row r="64" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="111">
+      <c r="A64" s="109">
         <v>2013</v>
       </c>
-      <c r="B64" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="111"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="111"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
-      <c r="Q64" s="111"/>
-      <c r="R64" s="111"/>
-      <c r="S64" s="111"/>
-      <c r="T64" s="111"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="111"/>
-      <c r="W64" s="111"/>
-      <c r="X64" s="111"/>
-      <c r="Y64" s="111"/>
-      <c r="Z64" s="111"/>
-      <c r="AA64" s="111" t="s">
+      <c r="B64" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
+      <c r="Z64" s="109"/>
+      <c r="AA64" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AB64" s="111" t="s">
+      <c r="AB64" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AC64" s="111"/>
-      <c r="AD64" s="111" t="s">
+      <c r="AC64" s="109"/>
+      <c r="AD64" s="109" t="s">
         <v>3</v>
       </c>
       <c r="AE64" s="15"/>
@@ -12522,44 +12526,44 @@
       <c r="EZ64" s="15"/>
     </row>
     <row r="65" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="111">
+      <c r="A65" s="109">
         <v>2017</v>
       </c>
-      <c r="B65" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="111"/>
-      <c r="L65" s="111"/>
-      <c r="M65" s="111"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="111"/>
-      <c r="R65" s="111"/>
-      <c r="S65" s="111"/>
-      <c r="T65" s="111"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="111"/>
-      <c r="X65" s="111"/>
-      <c r="Y65" s="111"/>
-      <c r="Z65" s="111"/>
-      <c r="AA65" s="111"/>
-      <c r="AB65" s="111"/>
-      <c r="AC65" s="111"/>
-      <c r="AD65" s="111"/>
+      <c r="B65" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="109"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="109"/>
+      <c r="U65" s="109"/>
+      <c r="V65" s="109"/>
+      <c r="W65" s="109"/>
+      <c r="X65" s="109"/>
+      <c r="Y65" s="109"/>
+      <c r="Z65" s="109"/>
+      <c r="AA65" s="109"/>
+      <c r="AB65" s="109"/>
+      <c r="AC65" s="109"/>
+      <c r="AD65" s="109"/>
       <c r="AE65" s="15"/>
       <c r="AF65" s="16"/>
       <c r="AG65" s="18"/>
@@ -12688,48 +12692,48 @@
       <c r="EZ65" s="15"/>
     </row>
     <row r="66" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="111">
+      <c r="A66" s="109">
         <v>2019</v>
       </c>
-      <c r="B66" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="111" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="111" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="111"/>
-      <c r="K66" s="111"/>
-      <c r="L66" s="111"/>
-      <c r="M66" s="111"/>
-      <c r="N66" s="111"/>
-      <c r="O66" s="111"/>
-      <c r="P66" s="111"/>
-      <c r="Q66" s="111"/>
-      <c r="R66" s="111"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="111"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="111"/>
-      <c r="Y66" s="111"/>
-      <c r="Z66" s="111"/>
-      <c r="AA66" s="111" t="s">
+      <c r="B66" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="109"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="109"/>
+      <c r="R66" s="109"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="109"/>
+      <c r="U66" s="109"/>
+      <c r="V66" s="109"/>
+      <c r="W66" s="109"/>
+      <c r="X66" s="109"/>
+      <c r="Y66" s="109"/>
+      <c r="Z66" s="109"/>
+      <c r="AA66" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AB66" s="111" t="s">
+      <c r="AB66" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AC66" s="111"/>
-      <c r="AD66" s="111"/>
+      <c r="AC66" s="109"/>
+      <c r="AD66" s="109"/>
       <c r="AE66" s="16"/>
       <c r="AF66" s="16"/>
       <c r="AG66" s="20"/>
@@ -12858,46 +12862,46 @@
       <c r="EZ66" s="16"/>
     </row>
     <row r="67" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="111">
+      <c r="A67" s="109">
         <v>2018</v>
       </c>
-      <c r="B67" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="111"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="111"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="111"/>
-      <c r="Y67" s="111"/>
-      <c r="Z67" s="111"/>
-      <c r="AA67" s="111"/>
-      <c r="AB67" s="111" t="s">
+      <c r="B67" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="109"/>
+      <c r="L67" s="109"/>
+      <c r="M67" s="109"/>
+      <c r="N67" s="109"/>
+      <c r="O67" s="109"/>
+      <c r="P67" s="109"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="109"/>
+      <c r="S67" s="109"/>
+      <c r="T67" s="109"/>
+      <c r="U67" s="109"/>
+      <c r="V67" s="109"/>
+      <c r="W67" s="109"/>
+      <c r="X67" s="109"/>
+      <c r="Y67" s="109"/>
+      <c r="Z67" s="109"/>
+      <c r="AA67" s="109"/>
+      <c r="AB67" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AC67" s="111"/>
-      <c r="AD67" s="111"/>
+      <c r="AC67" s="109"/>
+      <c r="AD67" s="109"/>
       <c r="AE67" s="15"/>
       <c r="AF67" s="16"/>
       <c r="AG67" s="18"/>
@@ -13026,52 +13030,52 @@
       <c r="EZ67" s="15"/>
     </row>
     <row r="68" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="111">
+      <c r="A68" s="109">
         <v>2017</v>
       </c>
-      <c r="B68" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111" t="s">
+      <c r="B68" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="111"/>
-      <c r="P68" s="111" t="s">
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="109"/>
+      <c r="O68" s="109"/>
+      <c r="P68" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q68" s="111" t="s">
+      <c r="Q68" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R68" s="111"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="111"/>
-      <c r="U68" s="111" t="s">
+      <c r="R68" s="109"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="V68" s="111"/>
-      <c r="W68" s="111"/>
-      <c r="X68" s="111"/>
-      <c r="Y68" s="111"/>
-      <c r="Z68" s="111"/>
-      <c r="AA68" s="111"/>
-      <c r="AB68" s="111"/>
-      <c r="AC68" s="111"/>
-      <c r="AD68" s="111"/>
+      <c r="V68" s="109"/>
+      <c r="W68" s="109"/>
+      <c r="X68" s="109"/>
+      <c r="Y68" s="109"/>
+      <c r="Z68" s="109"/>
+      <c r="AA68" s="109"/>
+      <c r="AB68" s="109"/>
+      <c r="AC68" s="109"/>
+      <c r="AD68" s="109"/>
       <c r="AE68" s="16"/>
       <c r="AF68" s="16"/>
       <c r="AG68" s="20"/>
@@ -13200,44 +13204,44 @@
       <c r="EZ68" s="16"/>
     </row>
     <row r="69" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="111">
+      <c r="A69" s="109">
         <v>2019</v>
       </c>
-      <c r="B69" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="111"/>
-      <c r="S69" s="111"/>
-      <c r="T69" s="111"/>
-      <c r="U69" s="111"/>
-      <c r="V69" s="111"/>
-      <c r="W69" s="111"/>
-      <c r="X69" s="111"/>
-      <c r="Y69" s="111"/>
-      <c r="Z69" s="111"/>
-      <c r="AA69" s="111"/>
-      <c r="AB69" s="111"/>
-      <c r="AC69" s="111"/>
-      <c r="AD69" s="111"/>
+      <c r="B69" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="109"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
+      <c r="R69" s="109"/>
+      <c r="S69" s="109"/>
+      <c r="T69" s="109"/>
+      <c r="U69" s="109"/>
+      <c r="V69" s="109"/>
+      <c r="W69" s="109"/>
+      <c r="X69" s="109"/>
+      <c r="Y69" s="109"/>
+      <c r="Z69" s="109"/>
+      <c r="AA69" s="109"/>
+      <c r="AB69" s="109"/>
+      <c r="AC69" s="109"/>
+      <c r="AD69" s="109"/>
       <c r="AE69" s="15"/>
       <c r="AF69" s="16"/>
       <c r="AG69" s="18"/>
@@ -13366,46 +13370,46 @@
       <c r="EZ69" s="15"/>
     </row>
     <row r="70" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="111">
+      <c r="A70" s="109">
         <v>2021</v>
       </c>
-      <c r="B70" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="111"/>
-      <c r="V70" s="111"/>
-      <c r="W70" s="111"/>
-      <c r="X70" s="111"/>
-      <c r="Y70" s="111"/>
-      <c r="Z70" s="111"/>
-      <c r="AA70" s="111"/>
-      <c r="AB70" s="111"/>
-      <c r="AC70" s="111" t="s">
+      <c r="B70" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="109"/>
+      <c r="L70" s="109"/>
+      <c r="M70" s="109"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="109"/>
+      <c r="V70" s="109"/>
+      <c r="W70" s="109"/>
+      <c r="X70" s="109"/>
+      <c r="Y70" s="109"/>
+      <c r="Z70" s="109"/>
+      <c r="AA70" s="109"/>
+      <c r="AB70" s="109"/>
+      <c r="AC70" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD70" s="111"/>
+      <c r="AD70" s="109"/>
       <c r="AE70" s="15"/>
       <c r="AF70" s="16"/>
       <c r="AG70" s="18"/>
@@ -13534,46 +13538,46 @@
       <c r="EZ70" s="15"/>
     </row>
     <row r="71" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="111">
+      <c r="A71" s="109">
         <v>2022</v>
       </c>
-      <c r="B71" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="111"/>
-      <c r="N71" s="111"/>
-      <c r="O71" s="111"/>
-      <c r="P71" s="111"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="111"/>
-      <c r="S71" s="111"/>
-      <c r="T71" s="111"/>
-      <c r="U71" s="111"/>
-      <c r="V71" s="111"/>
-      <c r="W71" s="111"/>
-      <c r="X71" s="111"/>
-      <c r="Y71" s="111"/>
-      <c r="Z71" s="111"/>
-      <c r="AA71" s="111"/>
-      <c r="AB71" s="111"/>
-      <c r="AC71" s="111" t="s">
+      <c r="B71" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="109"/>
+      <c r="L71" s="109"/>
+      <c r="M71" s="109"/>
+      <c r="N71" s="109"/>
+      <c r="O71" s="109"/>
+      <c r="P71" s="109"/>
+      <c r="Q71" s="109"/>
+      <c r="R71" s="109"/>
+      <c r="S71" s="109"/>
+      <c r="T71" s="109"/>
+      <c r="U71" s="109"/>
+      <c r="V71" s="109"/>
+      <c r="W71" s="109"/>
+      <c r="X71" s="109"/>
+      <c r="Y71" s="109"/>
+      <c r="Z71" s="109"/>
+      <c r="AA71" s="109"/>
+      <c r="AB71" s="109"/>
+      <c r="AC71" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD71" s="111"/>
+      <c r="AD71" s="109"/>
       <c r="AE71" s="16"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="18"/>
@@ -13702,46 +13706,46 @@
       <c r="EZ71" s="15"/>
     </row>
     <row r="72" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="111">
+      <c r="A72" s="109">
         <v>2019</v>
       </c>
-      <c r="B72" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="111"/>
-      <c r="K72" s="111"/>
-      <c r="L72" s="111"/>
-      <c r="M72" s="111"/>
-      <c r="N72" s="111"/>
-      <c r="O72" s="111"/>
-      <c r="P72" s="111"/>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="111"/>
-      <c r="S72" s="111"/>
-      <c r="T72" s="111"/>
-      <c r="U72" s="111"/>
-      <c r="V72" s="111"/>
-      <c r="W72" s="111"/>
-      <c r="X72" s="111"/>
-      <c r="Y72" s="111"/>
-      <c r="Z72" s="111"/>
-      <c r="AA72" s="111"/>
-      <c r="AB72" s="111"/>
-      <c r="AC72" s="111" t="s">
+      <c r="B72" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="109"/>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
+      <c r="U72" s="109"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD72" s="111"/>
+      <c r="AD72" s="109"/>
       <c r="AE72" s="16"/>
       <c r="AF72" s="16"/>
       <c r="AG72" s="20"/>
@@ -13870,46 +13874,46 @@
       <c r="EZ72" s="16"/>
     </row>
     <row r="73" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="111">
+      <c r="A73" s="109">
         <v>2017</v>
       </c>
-      <c r="B73" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="111"/>
-      <c r="V73" s="111"/>
-      <c r="W73" s="111"/>
-      <c r="X73" s="111"/>
-      <c r="Y73" s="111"/>
-      <c r="Z73" s="111"/>
-      <c r="AA73" s="111"/>
-      <c r="AB73" s="111"/>
-      <c r="AC73" s="111" t="s">
+      <c r="B73" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="109"/>
+      <c r="L73" s="109"/>
+      <c r="M73" s="109"/>
+      <c r="N73" s="109"/>
+      <c r="O73" s="109"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109"/>
+      <c r="R73" s="109"/>
+      <c r="S73" s="109"/>
+      <c r="T73" s="109"/>
+      <c r="U73" s="109"/>
+      <c r="V73" s="109"/>
+      <c r="W73" s="109"/>
+      <c r="X73" s="109"/>
+      <c r="Y73" s="109"/>
+      <c r="Z73" s="109"/>
+      <c r="AA73" s="109"/>
+      <c r="AB73" s="109"/>
+      <c r="AC73" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AD73" s="111"/>
+      <c r="AD73" s="109"/>
       <c r="AE73" s="15"/>
       <c r="AF73" s="16"/>
       <c r="AG73" s="18"/>
@@ -14038,52 +14042,52 @@
       <c r="EZ73" s="15"/>
     </row>
     <row r="74" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="111">
+      <c r="A74" s="109">
         <v>2021</v>
       </c>
-      <c r="B74" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111" t="s">
+      <c r="B74" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="111" t="s">
+      <c r="I74" s="109"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="109"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111" t="s">
+      <c r="N74" s="109"/>
+      <c r="O74" s="109"/>
+      <c r="P74" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="111"/>
-      <c r="V74" s="111"/>
-      <c r="W74" s="111"/>
-      <c r="X74" s="111" t="s">
+      <c r="Q74" s="109"/>
+      <c r="R74" s="109"/>
+      <c r="S74" s="109"/>
+      <c r="T74" s="109"/>
+      <c r="U74" s="109"/>
+      <c r="V74" s="109"/>
+      <c r="W74" s="109"/>
+      <c r="X74" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Y74" s="111"/>
-      <c r="Z74" s="111"/>
-      <c r="AA74" s="111"/>
-      <c r="AB74" s="111"/>
-      <c r="AC74" s="111"/>
-      <c r="AD74" s="111"/>
+      <c r="Y74" s="109"/>
+      <c r="Z74" s="109"/>
+      <c r="AA74" s="109"/>
+      <c r="AB74" s="109"/>
+      <c r="AC74" s="109"/>
+      <c r="AD74" s="109"/>
       <c r="AE74" s="16"/>
       <c r="AF74" s="15"/>
       <c r="AG74" s="18"/>
@@ -14212,58 +14216,58 @@
       <c r="EZ74" s="15"/>
     </row>
     <row r="75" spans="1:156" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="111">
+      <c r="A75" s="109">
         <v>2021</v>
       </c>
-      <c r="B75" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111" t="s">
+      <c r="B75" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="109"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="111" t="s">
+      <c r="H75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111" t="s">
+      <c r="I75" s="109"/>
+      <c r="J75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="111"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="111" t="s">
+      <c r="K75" s="109"/>
+      <c r="L75" s="109"/>
+      <c r="M75" s="109"/>
+      <c r="N75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O75" s="111"/>
-      <c r="P75" s="111" t="s">
+      <c r="O75" s="109"/>
+      <c r="P75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q75" s="111" t="s">
+      <c r="Q75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R75" s="111"/>
-      <c r="S75" s="111"/>
-      <c r="T75" s="111" t="s">
+      <c r="R75" s="109"/>
+      <c r="S75" s="109"/>
+      <c r="T75" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="U75" s="111"/>
-      <c r="V75" s="111"/>
-      <c r="W75" s="111"/>
-      <c r="X75" s="111"/>
-      <c r="Y75" s="111"/>
-      <c r="Z75" s="111"/>
-      <c r="AA75" s="111"/>
-      <c r="AB75" s="111"/>
-      <c r="AC75" s="111"/>
-      <c r="AD75" s="111"/>
+      <c r="U75" s="109"/>
+      <c r="V75" s="109"/>
+      <c r="W75" s="109"/>
+      <c r="X75" s="109"/>
+      <c r="Y75" s="109"/>
+      <c r="Z75" s="109"/>
+      <c r="AA75" s="109"/>
+      <c r="AB75" s="109"/>
+      <c r="AC75" s="109"/>
+      <c r="AD75" s="109"/>
       <c r="AE75" s="16"/>
       <c r="AF75" s="16"/>
       <c r="AG75" s="18"/>
@@ -14392,48 +14396,48 @@
       <c r="EZ75" s="15"/>
     </row>
     <row r="76" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="111">
+      <c r="A76" s="109">
         <v>2021</v>
       </c>
-      <c r="B76" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111" t="s">
+      <c r="B76" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="111" t="s">
+      <c r="H76" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="111"/>
-      <c r="N76" s="111"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="111"/>
-      <c r="Q76" s="111"/>
-      <c r="R76" s="111"/>
-      <c r="S76" s="111"/>
-      <c r="T76" s="111"/>
-      <c r="U76" s="111"/>
-      <c r="V76" s="111"/>
-      <c r="W76" s="111"/>
-      <c r="X76" s="111"/>
-      <c r="Y76" s="111"/>
-      <c r="Z76" s="111"/>
-      <c r="AA76" s="111"/>
-      <c r="AB76" s="111"/>
-      <c r="AC76" s="111"/>
-      <c r="AD76" s="111"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="109"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="109"/>
+      <c r="U76" s="109"/>
+      <c r="V76" s="109"/>
+      <c r="W76" s="109"/>
+      <c r="X76" s="109"/>
+      <c r="Y76" s="109"/>
+      <c r="Z76" s="109"/>
+      <c r="AA76" s="109"/>
+      <c r="AB76" s="109"/>
+      <c r="AC76" s="109"/>
+      <c r="AD76" s="109"/>
       <c r="AE76" s="15"/>
       <c r="AF76" s="16"/>
       <c r="AG76" s="18"/>
@@ -14562,48 +14566,48 @@
       <c r="EZ76" s="15"/>
     </row>
     <row r="77" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="111">
+      <c r="A77" s="109">
         <v>2021</v>
       </c>
-      <c r="B77" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111" t="s">
+      <c r="B77" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111" t="s">
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O77" s="111"/>
-      <c r="P77" s="111"/>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="111"/>
-      <c r="S77" s="111"/>
-      <c r="T77" s="111"/>
-      <c r="U77" s="111"/>
-      <c r="V77" s="111"/>
-      <c r="W77" s="111"/>
-      <c r="X77" s="111"/>
-      <c r="Y77" s="111"/>
-      <c r="Z77" s="111"/>
-      <c r="AA77" s="111"/>
-      <c r="AB77" s="111"/>
-      <c r="AC77" s="111"/>
-      <c r="AD77" s="111"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="109"/>
+      <c r="Q77" s="109"/>
+      <c r="R77" s="109"/>
+      <c r="S77" s="109"/>
+      <c r="T77" s="109"/>
+      <c r="U77" s="109"/>
+      <c r="V77" s="109"/>
+      <c r="W77" s="109"/>
+      <c r="X77" s="109"/>
+      <c r="Y77" s="109"/>
+      <c r="Z77" s="109"/>
+      <c r="AA77" s="109"/>
+      <c r="AB77" s="109"/>
+      <c r="AC77" s="109"/>
+      <c r="AD77" s="109"/>
       <c r="AE77" s="16"/>
       <c r="AF77" s="16"/>
       <c r="AG77" s="20"/>
@@ -14732,52 +14736,52 @@
       <c r="EZ77" s="16"/>
     </row>
     <row r="78" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="111">
+      <c r="A78" s="109">
         <v>2021</v>
       </c>
-      <c r="B78" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111" t="s">
+      <c r="B78" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="109"/>
+      <c r="F78" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111" t="s">
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K78" s="111" t="s">
+      <c r="K78" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L78" s="111" t="s">
+      <c r="L78" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="111"/>
-      <c r="P78" s="111"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="111"/>
-      <c r="S78" s="111"/>
-      <c r="T78" s="111"/>
-      <c r="U78" s="111"/>
-      <c r="V78" s="111"/>
-      <c r="W78" s="111"/>
-      <c r="X78" s="111"/>
-      <c r="Y78" s="111"/>
-      <c r="Z78" s="111"/>
-      <c r="AA78" s="111"/>
-      <c r="AB78" s="111"/>
-      <c r="AC78" s="111"/>
-      <c r="AD78" s="111"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="109"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="109"/>
+      <c r="U78" s="109"/>
+      <c r="V78" s="109"/>
+      <c r="W78" s="109"/>
+      <c r="X78" s="109"/>
+      <c r="Y78" s="109"/>
+      <c r="Z78" s="109"/>
+      <c r="AA78" s="109"/>
+      <c r="AB78" s="109"/>
+      <c r="AC78" s="109"/>
+      <c r="AD78" s="109"/>
       <c r="AE78" s="15"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="20"/>
@@ -14906,52 +14910,52 @@
       <c r="EZ78" s="16"/>
     </row>
     <row r="79" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="111">
+      <c r="A79" s="109">
         <v>2021</v>
       </c>
-      <c r="B79" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="111" t="s">
+      <c r="B79" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="109"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="111"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="111" t="s">
+      <c r="H79" s="109"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K79" s="111"/>
-      <c r="L79" s="111" t="s">
+      <c r="K79" s="109"/>
+      <c r="L79" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M79" s="111" t="s">
+      <c r="M79" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N79" s="111"/>
-      <c r="O79" s="111"/>
-      <c r="P79" s="111"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
-      <c r="S79" s="111"/>
-      <c r="T79" s="111"/>
-      <c r="U79" s="111"/>
-      <c r="V79" s="111"/>
-      <c r="W79" s="111"/>
-      <c r="X79" s="111"/>
-      <c r="Y79" s="111"/>
-      <c r="Z79" s="111"/>
-      <c r="AA79" s="111"/>
-      <c r="AB79" s="111"/>
-      <c r="AC79" s="111"/>
-      <c r="AD79" s="111"/>
+      <c r="N79" s="109"/>
+      <c r="O79" s="109"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
+      <c r="R79" s="109"/>
+      <c r="S79" s="109"/>
+      <c r="T79" s="109"/>
+      <c r="U79" s="109"/>
+      <c r="V79" s="109"/>
+      <c r="W79" s="109"/>
+      <c r="X79" s="109"/>
+      <c r="Y79" s="109"/>
+      <c r="Z79" s="109"/>
+      <c r="AA79" s="109"/>
+      <c r="AB79" s="109"/>
+      <c r="AC79" s="109"/>
+      <c r="AD79" s="109"/>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="20"/>
@@ -15080,58 +15084,58 @@
       <c r="EZ79" s="16"/>
     </row>
     <row r="80" spans="1:156" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="111">
+      <c r="A80" s="109">
         <v>2021</v>
       </c>
-      <c r="B80" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="111"/>
-      <c r="F80" s="111" t="s">
+      <c r="B80" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="111" t="s">
+      <c r="G80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="111"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="111" t="s">
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="111" t="s">
+      <c r="K80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="111" t="s">
+      <c r="L80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="111"/>
-      <c r="N80" s="111"/>
-      <c r="O80" s="111"/>
-      <c r="P80" s="111" t="s">
+      <c r="M80" s="109"/>
+      <c r="N80" s="109"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Q80" s="111" t="s">
+      <c r="Q80" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="R80" s="111"/>
-      <c r="S80" s="111"/>
-      <c r="T80" s="111"/>
-      <c r="U80" s="111"/>
-      <c r="V80" s="111"/>
-      <c r="W80" s="111"/>
-      <c r="X80" s="111"/>
-      <c r="Y80" s="111"/>
-      <c r="Z80" s="111"/>
-      <c r="AA80" s="111"/>
-      <c r="AB80" s="111"/>
-      <c r="AC80" s="111"/>
-      <c r="AD80" s="111"/>
+      <c r="R80" s="109"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="109"/>
+      <c r="U80" s="109"/>
+      <c r="V80" s="109"/>
+      <c r="W80" s="109"/>
+      <c r="X80" s="109"/>
+      <c r="Y80" s="109"/>
+      <c r="Z80" s="109"/>
+      <c r="AA80" s="109"/>
+      <c r="AB80" s="109"/>
+      <c r="AC80" s="109"/>
+      <c r="AD80" s="109"/>
       <c r="AE80" s="16"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="18"/>
@@ -45912,6 +45916,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="E1:O1"/>
@@ -45919,7 +45924,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AE5:AG5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/compiler/data/XAIP.xlsx
+++ b/src/compiler/data/XAIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarathsreedharan/mycode/survey-visualizer/src/compiler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D2AE8-49EC-E643-A5DA-29DF39F0DB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0AF383-4255-3346-B463-86F29CEEA9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>HTN</t>
-  </si>
-  <si>
-    <t>FOND</t>
   </si>
   <si>
     <t>Partial Observability</t>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Qualitative Non-Determinism</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:EZ274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <pane ySplit="6" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="116"/>
       <c r="G1" s="116"/>
@@ -1613,10 +1613,10 @@
       <c r="N1" s="116"/>
       <c r="O1" s="116"/>
       <c r="P1" s="108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R1" s="116"/>
       <c r="S1" s="116"/>
@@ -1627,7 +1627,7 @@
       <c r="X1" s="116"/>
       <c r="Y1" s="116"/>
       <c r="Z1" s="115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA1" s="116"/>
       <c r="AB1" s="116"/>
@@ -1638,17 +1638,17 @@
     </row>
     <row r="2" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="116"/>
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
       <c r="I2" s="115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="116"/>
       <c r="K2" s="115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" s="116"/>
       <c r="M2" s="116"/>
@@ -1662,16 +1662,16 @@
         <v>16</v>
       </c>
       <c r="Q2" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="R2" s="108" t="s">
+      <c r="S2" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="S2" s="108" t="s">
-        <v>203</v>
-      </c>
       <c r="T2" s="108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U2" s="108" t="s">
         <v>19</v>
@@ -1680,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="108" t="s">
-        <v>22</v>
-      </c>
       <c r="Y2" s="108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z2" s="108" t="s">
         <v>9</v>
@@ -1698,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="AC2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD2" s="108" t="s">
         <v>191</v>
-      </c>
-      <c r="AD2" s="108" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:156" ht="20" x14ac:dyDescent="0.2">
@@ -1709,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="108" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>199</v>
       </c>
       <c r="H3" s="108" t="s">
         <v>5</v>
@@ -2008,13 +2008,13 @@
         <v>2017</v>
       </c>
       <c r="B5" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="D5" s="109" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="109" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="109"/>
       <c r="F5" s="109" t="s">
@@ -2186,13 +2186,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="D6" s="109" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="109"/>
       <c r="F6" s="109" t="s">
@@ -2366,13 +2366,13 @@
         <v>2012</v>
       </c>
       <c r="B7" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="D7" s="109" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="109"/>
       <c r="F7" s="109"/>
@@ -2544,13 +2544,13 @@
         <v>2014</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="109" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" s="109"/>
@@ -2724,13 +2724,13 @@
         <v>2018</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="109" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
@@ -2906,13 +2906,13 @@
         <v>2022</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="109" t="s">
@@ -3090,13 +3090,13 @@
         <v>2019</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="109" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="109"/>
       <c r="F11" s="109" t="s">
@@ -3274,13 +3274,13 @@
         <v>2020</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="109"/>
@@ -3452,13 +3452,13 @@
         <v>2020</v>
       </c>
       <c r="B13" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="D13" s="109" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="109"/>
@@ -3630,13 +3630,13 @@
         <v>2022</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
@@ -3810,13 +3810,13 @@
         <v>2010</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
@@ -3984,13 +3984,13 @@
         <v>2009</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="109" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="109"/>
@@ -4160,13 +4160,13 @@
         <v>2013</v>
       </c>
       <c r="B17" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="D17" s="109" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="109"/>
@@ -4334,13 +4334,13 @@
         <v>2020</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="109" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>51</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="109" t="s">
@@ -4520,13 +4520,13 @@
         <v>2018</v>
       </c>
       <c r="B19" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="D19" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="109" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="109" t="s">
         <v>3</v>
@@ -4698,13 +4698,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="109" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="109" t="s">
-        <v>56</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>3</v>
@@ -4882,13 +4882,13 @@
         <v>2016</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>58</v>
       </c>
       <c r="E21" s="109" t="s">
         <v>3</v>
@@ -5060,13 +5060,13 @@
         <v>2017</v>
       </c>
       <c r="B22" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="D22" s="109" t="s">
         <v>60</v>
-      </c>
-      <c r="D22" s="109" t="s">
-        <v>61</v>
       </c>
       <c r="E22" s="109" t="s">
         <v>3</v>
@@ -5232,13 +5232,13 @@
         <v>2019</v>
       </c>
       <c r="B23" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="D23" s="109" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="109"/>
@@ -5406,13 +5406,13 @@
         <v>2021</v>
       </c>
       <c r="B24" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="D24" s="109" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>67</v>
       </c>
       <c r="E24" s="109"/>
       <c r="F24" s="109"/>
@@ -5578,13 +5578,13 @@
         <v>2018</v>
       </c>
       <c r="B25" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="D25" s="109" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>70</v>
       </c>
       <c r="E25" s="109" t="s">
         <v>3</v>
@@ -5752,13 +5752,13 @@
         <v>2019</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="109" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="109"/>
       <c r="F26" s="109"/>
@@ -5924,13 +5924,13 @@
         <v>2021</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="109" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>74</v>
       </c>
       <c r="E27" s="109"/>
       <c r="F27" s="109" t="s">
@@ -6102,13 +6102,13 @@
         <v>2020</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="109" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>76</v>
       </c>
       <c r="E28" s="109" t="s">
         <v>3</v>
@@ -6280,13 +6280,13 @@
         <v>2019</v>
       </c>
       <c r="B29" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="D29" s="109" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="109" t="s">
-        <v>79</v>
       </c>
       <c r="E29" s="109" t="s">
         <v>3</v>
@@ -6458,13 +6458,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="109" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>81</v>
       </c>
       <c r="E30" s="109"/>
       <c r="F30" s="109"/>
@@ -6638,13 +6638,13 @@
         <v>2018</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="109" t="s">
         <v>82</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>83</v>
       </c>
       <c r="E31" s="109"/>
       <c r="F31" s="109" t="s">
@@ -6820,13 +6820,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="109" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="109" t="s">
-        <v>85</v>
       </c>
       <c r="E32" s="109"/>
       <c r="F32" s="109" t="s">
@@ -6998,13 +6998,13 @@
         <v>2020</v>
       </c>
       <c r="B33" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="D33" s="109" t="s">
         <v>87</v>
-      </c>
-      <c r="D33" s="109" t="s">
-        <v>88</v>
       </c>
       <c r="E33" s="109"/>
       <c r="F33" s="109"/>
@@ -7174,13 +7174,13 @@
         <v>2019</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="109" t="s">
         <v>89</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>90</v>
       </c>
       <c r="E34" s="109"/>
       <c r="F34" s="109"/>
@@ -7346,13 +7346,13 @@
         <v>2018</v>
       </c>
       <c r="B35" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="D35" s="109" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>93</v>
       </c>
       <c r="E35" s="109"/>
       <c r="F35" s="109"/>
@@ -7520,13 +7520,13 @@
         <v>2022</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="109" t="s">
         <v>94</v>
-      </c>
-      <c r="D36" s="109" t="s">
-        <v>95</v>
       </c>
       <c r="E36" s="109"/>
       <c r="F36" s="109"/>
@@ -7694,13 +7694,13 @@
         <v>2019</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="109" t="s">
         <v>89</v>
-      </c>
-      <c r="D37" s="109" t="s">
-        <v>90</v>
       </c>
       <c r="E37" s="109"/>
       <c r="F37" s="109"/>
@@ -7868,13 +7868,13 @@
         <v>2020</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="109" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" s="109" t="s">
-        <v>97</v>
       </c>
       <c r="E38" s="109"/>
       <c r="F38" s="109"/>
@@ -8042,13 +8042,13 @@
         <v>2020</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="109" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" s="109" t="s">
-        <v>99</v>
       </c>
       <c r="E39" s="109"/>
       <c r="F39" s="109"/>
@@ -8212,13 +8212,13 @@
         <v>2018</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="D40" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="E40" s="109"/>
       <c r="F40" s="109" t="s">
@@ -8382,13 +8382,13 @@
         <v>2022</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="109" t="s">
         <v>102</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>103</v>
       </c>
       <c r="E41" s="109"/>
       <c r="F41" s="109" t="s">
@@ -8556,13 +8556,13 @@
         <v>2017</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="109" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="109" t="s">
-        <v>105</v>
       </c>
       <c r="E42" s="109"/>
       <c r="F42" s="109"/>
@@ -8730,13 +8730,13 @@
         <v>2020</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="109"/>
       <c r="F43" s="109"/>
@@ -8900,13 +8900,13 @@
         <v>2019</v>
       </c>
       <c r="B44" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="109" t="s">
         <v>107</v>
-      </c>
-      <c r="D44" s="109" t="s">
-        <v>108</v>
       </c>
       <c r="E44" s="109"/>
       <c r="F44" s="109"/>
@@ -9074,13 +9074,13 @@
         <v>2021</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="109" t="s">
         <v>109</v>
-      </c>
-      <c r="D45" s="109" t="s">
-        <v>110</v>
       </c>
       <c r="E45" s="109"/>
       <c r="F45" s="109" t="s">
@@ -9250,13 +9250,13 @@
         <v>2019</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="109" t="s">
         <v>111</v>
-      </c>
-      <c r="D46" s="109" t="s">
-        <v>112</v>
       </c>
       <c r="E46" s="109" t="s">
         <v>3</v>
@@ -9428,13 +9428,13 @@
         <v>2019</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="109" t="s">
         <v>113</v>
-      </c>
-      <c r="D47" s="109" t="s">
-        <v>114</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>3</v>
@@ -9606,13 +9606,13 @@
         <v>2019</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="109" t="s">
         <v>115</v>
-      </c>
-      <c r="D48" s="109" t="s">
-        <v>116</v>
       </c>
       <c r="E48" s="109" t="s">
         <v>3</v>
@@ -9780,13 +9780,13 @@
         <v>2019</v>
       </c>
       <c r="B49" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109" t="s">
@@ -9954,13 +9954,13 @@
         <v>2020</v>
       </c>
       <c r="B50" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="109" t="s">
         <v>118</v>
-      </c>
-      <c r="D50" s="109" t="s">
-        <v>119</v>
       </c>
       <c r="E50" s="109"/>
       <c r="F50" s="109" t="s">
@@ -10128,13 +10128,13 @@
         <v>2019</v>
       </c>
       <c r="B51" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="109" t="s">
+      <c r="D51" s="109" t="s">
         <v>121</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>122</v>
       </c>
       <c r="E51" s="109"/>
       <c r="F51" s="109"/>
@@ -10298,13 +10298,13 @@
         <v>2022</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="109" t="s">
         <v>123</v>
-      </c>
-      <c r="D52" s="109" t="s">
-        <v>124</v>
       </c>
       <c r="E52" s="109"/>
       <c r="F52" s="109" t="s">
@@ -10476,13 +10476,13 @@
         <v>2022</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="109" t="s">
         <v>125</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>126</v>
       </c>
       <c r="E53" s="109"/>
       <c r="F53" s="109" t="s">
@@ -10650,13 +10650,13 @@
         <v>2020</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="109"/>
       <c r="F54" s="109"/>
@@ -10818,13 +10818,13 @@
         <v>2019</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="109" t="s">
         <v>128</v>
-      </c>
-      <c r="D55" s="109" t="s">
-        <v>129</v>
       </c>
       <c r="E55" s="109"/>
       <c r="F55" s="109"/>
@@ -10986,13 +10986,13 @@
         <v>2022</v>
       </c>
       <c r="B56" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="D56" s="113" t="s">
         <v>131</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>132</v>
       </c>
       <c r="E56" s="109"/>
       <c r="F56" s="109"/>
@@ -11156,13 +11156,13 @@
         <v>2021</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="109" t="s">
         <v>133</v>
-      </c>
-      <c r="D57" s="109" t="s">
-        <v>134</v>
       </c>
       <c r="E57" s="109"/>
       <c r="F57" s="109"/>
@@ -11330,13 +11330,13 @@
         <v>2020</v>
       </c>
       <c r="B58" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="109" t="s">
+      <c r="D58" s="109" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" s="109" t="s">
-        <v>137</v>
       </c>
       <c r="E58" s="109"/>
       <c r="F58" s="109"/>
@@ -11502,13 +11502,13 @@
         <v>2020</v>
       </c>
       <c r="B59" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="109" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="109" t="s">
-        <v>139</v>
       </c>
       <c r="E59" s="109"/>
       <c r="F59" s="109" t="s">
@@ -11678,13 +11678,13 @@
         <v>2011</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="109" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="109" t="s">
-        <v>141</v>
       </c>
       <c r="E60" s="109"/>
       <c r="F60" s="109"/>
@@ -11848,13 +11848,13 @@
         <v>2021</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="109" t="s">
         <v>142</v>
-      </c>
-      <c r="D61" s="109" t="s">
-        <v>143</v>
       </c>
       <c r="E61" s="109"/>
       <c r="F61" s="109"/>
@@ -12014,13 +12014,13 @@
         <v>2017</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="109" t="s">
         <v>144</v>
-      </c>
-      <c r="D62" s="109" t="s">
-        <v>145</v>
       </c>
       <c r="E62" s="109"/>
       <c r="F62" s="109"/>
@@ -12182,13 +12182,13 @@
         <v>2015</v>
       </c>
       <c r="B63" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="109" t="s">
+      <c r="D63" s="109" t="s">
         <v>147</v>
-      </c>
-      <c r="D63" s="109" t="s">
-        <v>148</v>
       </c>
       <c r="E63" s="109"/>
       <c r="F63" s="109"/>
@@ -12358,13 +12358,13 @@
         <v>2013</v>
       </c>
       <c r="B64" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="109" t="s">
         <v>149</v>
-      </c>
-      <c r="D64" s="109" t="s">
-        <v>150</v>
       </c>
       <c r="E64" s="109"/>
       <c r="F64" s="109"/>
@@ -12530,13 +12530,13 @@
         <v>2017</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="109" t="s">
         <v>151</v>
-      </c>
-      <c r="D65" s="109" t="s">
-        <v>152</v>
       </c>
       <c r="E65" s="109"/>
       <c r="F65" s="109"/>
@@ -12696,13 +12696,13 @@
         <v>2019</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="109" t="s">
         <v>153</v>
-      </c>
-      <c r="D66" s="109" t="s">
-        <v>154</v>
       </c>
       <c r="E66" s="109"/>
       <c r="F66" s="109"/>
@@ -12866,13 +12866,13 @@
         <v>2018</v>
       </c>
       <c r="B67" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="109" t="s">
+      <c r="D67" s="109" t="s">
         <v>156</v>
-      </c>
-      <c r="D67" s="109" t="s">
-        <v>157</v>
       </c>
       <c r="E67" s="109"/>
       <c r="F67" s="109"/>
@@ -13034,13 +13034,13 @@
         <v>2017</v>
       </c>
       <c r="B68" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="109" t="s">
+      <c r="D68" s="109" t="s">
         <v>159</v>
-      </c>
-      <c r="D68" s="109" t="s">
-        <v>160</v>
       </c>
       <c r="E68" s="109"/>
       <c r="F68" s="109"/>
@@ -13208,13 +13208,13 @@
         <v>2019</v>
       </c>
       <c r="B69" s="109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="109" t="s">
         <v>161</v>
-      </c>
-      <c r="D69" s="109" t="s">
-        <v>162</v>
       </c>
       <c r="E69" s="109"/>
       <c r="F69" s="109"/>
@@ -13374,13 +13374,13 @@
         <v>2021</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="109" t="s">
         <v>163</v>
-      </c>
-      <c r="D70" s="109" t="s">
-        <v>164</v>
       </c>
       <c r="E70" s="109"/>
       <c r="F70" s="109"/>
@@ -13542,13 +13542,13 @@
         <v>2022</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="109" t="s">
         <v>165</v>
-      </c>
-      <c r="D71" s="109" t="s">
-        <v>166</v>
       </c>
       <c r="E71" s="109"/>
       <c r="F71" s="109"/>
@@ -13710,13 +13710,13 @@
         <v>2019</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="109" t="s">
         <v>167</v>
-      </c>
-      <c r="D72" s="109" t="s">
-        <v>168</v>
       </c>
       <c r="E72" s="109"/>
       <c r="F72" s="109"/>
@@ -13878,13 +13878,13 @@
         <v>2017</v>
       </c>
       <c r="B73" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="109" t="s">
+      <c r="D73" s="109" t="s">
         <v>170</v>
-      </c>
-      <c r="D73" s="109" t="s">
-        <v>171</v>
       </c>
       <c r="E73" s="109"/>
       <c r="F73" s="109"/>
@@ -14046,13 +14046,13 @@
         <v>2021</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="109" t="s">
         <v>172</v>
-      </c>
-      <c r="D74" s="109" t="s">
-        <v>173</v>
       </c>
       <c r="E74" s="109"/>
       <c r="F74" s="109"/>
@@ -14220,13 +14220,13 @@
         <v>2021</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="114" t="s">
         <v>174</v>
-      </c>
-      <c r="D75" s="114" t="s">
-        <v>175</v>
       </c>
       <c r="E75" s="109"/>
       <c r="F75" s="109"/>
@@ -14400,13 +14400,13 @@
         <v>2021</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="109" t="s">
         <v>176</v>
-      </c>
-      <c r="D76" s="109" t="s">
-        <v>177</v>
       </c>
       <c r="E76" s="109"/>
       <c r="F76" s="109"/>
@@ -14570,13 +14570,13 @@
         <v>2021</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="109" t="s">
         <v>178</v>
-      </c>
-      <c r="D77" s="109" t="s">
-        <v>179</v>
       </c>
       <c r="E77" s="109"/>
       <c r="F77" s="109"/>
@@ -14740,13 +14740,13 @@
         <v>2021</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="109" t="s">
         <v>180</v>
-      </c>
-      <c r="D78" s="109" t="s">
-        <v>181</v>
       </c>
       <c r="E78" s="109"/>
       <c r="F78" s="109" t="s">
@@ -14914,13 +14914,13 @@
         <v>2021</v>
       </c>
       <c r="B79" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="109" t="s">
         <v>182</v>
-      </c>
-      <c r="D79" s="109" t="s">
-        <v>183</v>
       </c>
       <c r="E79" s="109"/>
       <c r="F79" s="109"/>
@@ -15088,13 +15088,13 @@
         <v>2021</v>
       </c>
       <c r="B80" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="109" t="s">
+      <c r="D80" s="109" t="s">
         <v>185</v>
-      </c>
-      <c r="D80" s="109" t="s">
-        <v>186</v>
       </c>
       <c r="E80" s="109"/>
       <c r="F80" s="109" t="s">
